--- a/data/case1/9/Q1_14.xlsx
+++ b/data/case1/9/Q1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.1688442908516663</v>
+        <v>0.22195987269149242</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.005999999947245982</v>
+        <v>-0.0059999999463791198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999565498712</v>
+        <v>-0.0039999999524873431</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999189297455</v>
+        <v>-0.0079999999135100808</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999587921877</v>
+        <v>-0.0029999999516405751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999597715146</v>
+        <v>-0.0019999999472890551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998893136599</v>
+        <v>0.034240474863218129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998848754323</v>
+        <v>-0.0099999998772188903</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999476629782</v>
+        <v>-0.0019999999441777661</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999423188086</v>
+        <v>-0.0019999999430986293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999335981187</v>
+        <v>-0.0029999999345005079</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.003499999928059605</v>
+        <v>0.034565185851041846</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999224707423</v>
+        <v>-0.0034999999211429156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.007999999882303932</v>
+        <v>-0.0079999998797735117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0009999999413414784</v>
+        <v>-0.00099999993744059879</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999318054407</v>
+        <v>-0.0019999999263888846</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999303950133</v>
+        <v>-0.001999999921831197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999128657038</v>
+        <v>-0.016554215914565518</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999632915895</v>
+        <v>-0.0039999999617847948</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.038643015184973706</v>
+        <v>-0.0039999999442983381</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.00399999995068967</v>
+        <v>-0.0039999999404622955</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999503361749</v>
+        <v>-0.057824049417573242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999451042498</v>
+        <v>-0.0049999999409342522</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999811584956</v>
+        <v>-0.019999999806880275</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999809050983</v>
+        <v>-0.019999999804234392</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.037582003771333916</v>
+        <v>-0.0024999999402677275</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0062791167303393181</v>
+        <v>-0.0024999999364059278</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999517583689</v>
+        <v>-0.0019999999229316501</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999044592087</v>
+        <v>-0.006999999868106066</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999448479002</v>
+        <v>-0.059999999408933746</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999066450158</v>
+        <v>-0.0069999998581540268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.042072054351841359</v>
+        <v>-0.0099999998318249794</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999338302672</v>
+        <v>-0.0039999998829394201</v>
       </c>
     </row>
   </sheetData>
